--- a/js/JavaScript利用可能API一覧.xlsx
+++ b/js/JavaScript利用可能API一覧.xlsx
@@ -2103,7 +2103,7 @@
   <dimension ref="B1:F252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
